--- a/09_Driver/04 蓝屏分析.xlsx
+++ b/09_Driver/04 蓝屏分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\09_Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73A80CB-C2F4-488B-A3D3-8A64F41BA04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2360A356-FE19-4537-AAA4-18583F105EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6444" yWindow="12" windowWidth="16596" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>蓝屏分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,10 @@
   </si>
   <si>
     <t>2、trap frame  // 找到异常指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成伪代码(Generate pseudocode)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2101,6 +2105,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>83821</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>53341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>595449</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DFD1F89-6495-3E27-1560-78D5C9B9F049}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1303021" y="12847321"/>
+          <a:ext cx="5388428" cy="2377440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>102572</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61AEB96A-99BC-A4F1-53C9-DF2FDC1AA83D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="15422880"/>
+          <a:ext cx="7417772" cy="1043940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2370,17 +2462,17 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2389,7 +2481,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>45</v>
       </c>
@@ -2398,12 +2490,12 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>51</v>
       </c>
@@ -2428,29 +2520,29 @@
       <selection activeCell="W66" sqref="W66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
       <c r="O42" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="s">
         <v>6</v>
       </c>
@@ -2464,7 +2556,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>7</v>
       </c>
@@ -2476,7 +2568,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
@@ -2488,7 +2580,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>9</v>
       </c>
@@ -2500,7 +2592,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
@@ -2512,7 +2604,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
         <v>7</v>
       </c>
@@ -2524,7 +2616,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2534,7 +2626,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
         <v>10</v>
       </c>
@@ -2546,7 +2638,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2556,7 +2648,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2568,7 +2660,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2578,7 +2670,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C54" s="3" t="s">
         <v>12</v>
       </c>
@@ -2590,7 +2682,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2600,7 +2692,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
         <v>13</v>
       </c>
@@ -2612,7 +2704,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
         <v>14</v>
       </c>
@@ -2624,7 +2716,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2640,7 +2732,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
         <v>17</v>
       </c>
@@ -2654,7 +2746,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
         <v>18</v>
       </c>
@@ -2668,7 +2760,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
         <v>19</v>
       </c>
@@ -2682,7 +2774,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
         <v>20</v>
       </c>
@@ -2696,7 +2788,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
         <v>21</v>
       </c>
@@ -2710,7 +2802,7 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
         <v>22</v>
       </c>
@@ -2724,7 +2816,7 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
         <v>23</v>
       </c>
@@ -2738,7 +2830,7 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="68" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C68" s="3" t="s">
         <v>37</v>
       </c>
@@ -2746,32 +2838,32 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C70" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C71" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C73" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C74" s="3" t="s">
         <v>30</v>
       </c>
@@ -2779,32 +2871,32 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C75" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C76" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C77" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C78" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C80" s="1" t="s">
         <v>36</v>
       </c>
@@ -2822,29 +2914,29 @@
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>44</v>
       </c>
@@ -2862,29 +2954,29 @@
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>50</v>
       </c>
@@ -2898,23 +2990,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23CD672-FCE5-4B0A-BEBE-25B1D0FF0FF4}">
-  <dimension ref="B2:E73"/>
+  <dimension ref="B2:E96"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>54</v>
       </c>
@@ -2922,29 +3016,35 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>